--- a/team_specific_matrix/Biblical Stud. (TX)_A.xlsx
+++ b/team_specific_matrix/Biblical Stud. (TX)_A.xlsx
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3620689655172414</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
   </sheetData>
